--- a/有意思的小算法/GPS.xlsx
+++ b/有意思的小算法/GPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python_content\QT\有意思的小算法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8074958E-8D45-470C-B62D-0C20A6A15B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDACF21-2155-48DE-B05F-B5FF764A782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{731B561D-5EB3-4D65-83B9-680D65993D14}"/>
   </bookViews>
@@ -466,14 +466,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA4E9D-21AE-40F6-AB0F-86F9FF5E5DFA}">
   <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomRight" state="frozenSplit"/>
-      <selection activeCell="D336" sqref="D336"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="256" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
